--- a/bangdiem.xlsx
+++ b/bangdiem.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52194B9-07B4-45A8-9197-5FDB0D58A752}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2895C4-74C9-4464-A601-CE7A28DEDA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -363,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bangdiem.xlsx
+++ b/bangdiem.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2895C4-74C9-4464-A601-CE7A28DEDA78}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D8249-C4A9-48AF-A1B1-C63B7E25E53C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -365,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1229,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1620054</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
